--- a/React_FTP_요구사항_명세서.xlsx
+++ b/React_FTP_요구사항_명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\김보경\교육5. React FTP 탐색기 개발\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\workspace-spring-tool-suite-4-4.10.0.RELEASE\ReactFTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -456,11 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>좌측의 폴더 탐색기에서 선택한 폴더 하위의 (폴더를 제외한)컨텐츠들이 우측 레이아웃에
-표시되어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우측 레이아웃 우클릭 기능
 - 선택 아이템 없을 경우</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -885,6 +880,10 @@
   </si>
   <si>
     <t>김보경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌측의 폴더 탐색기에서 선택한 폴더 하위의 컨텐츠들이 우측 레이아웃에 표시되어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1351,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -1411,7 +1410,7 @@
         <v>44306</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>13</v>
@@ -1438,7 +1437,7 @@
         <v>44306</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>13</v>
@@ -1450,7 +1449,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -1465,7 +1464,7 @@
         <v>44306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>13</v>
@@ -1477,7 +1476,7 @@
     </row>
     <row r="5" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>12</v>
@@ -1492,7 +1491,7 @@
         <v>44306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>13</v>
@@ -1504,7 +1503,7 @@
     </row>
     <row r="6" spans="1:9" ht="109.2" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
@@ -1519,7 +1518,7 @@
         <v>44306</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>13</v>
@@ -1531,7 +1530,7 @@
     </row>
     <row r="7" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -1546,7 +1545,7 @@
         <v>44306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>13</v>
@@ -1558,7 +1557,7 @@
     </row>
     <row r="8" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>12</v>
@@ -1573,7 +1572,7 @@
         <v>44306</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>13</v>
@@ -1585,7 +1584,7 @@
     </row>
     <row r="9" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
@@ -1600,7 +1599,7 @@
         <v>44306</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>13</v>
@@ -1612,7 +1611,7 @@
     </row>
     <row r="10" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>12</v>
@@ -1627,7 +1626,7 @@
         <v>44306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>13</v>
@@ -1639,7 +1638,7 @@
     </row>
     <row r="11" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>12</v>
@@ -1648,13 +1647,13 @@
         <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="6">
         <v>44306</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>13</v>
@@ -1665,22 +1664,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" s="6">
         <v>44306</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>13</v>
@@ -1691,7 +1690,7 @@
     </row>
     <row r="13" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>12</v>
@@ -1700,13 +1699,13 @@
         <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E13" s="6">
         <v>44306</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
@@ -1717,22 +1716,22 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="E14" s="6">
         <v>44306</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>13</v>
@@ -1743,7 +1742,7 @@
     </row>
     <row r="15" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>12</v>
@@ -1758,7 +1757,7 @@
         <v>44306</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>13</v>
@@ -1769,7 +1768,7 @@
     </row>
     <row r="16" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>12</v>
@@ -1784,7 +1783,7 @@
         <v>44306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>13</v>
@@ -1795,13 +1794,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>28</v>
@@ -1810,7 +1809,7 @@
         <v>44306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>13</v>
@@ -1821,22 +1820,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="6">
         <v>44306</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>13</v>
@@ -1847,13 +1846,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
@@ -1862,7 +1861,7 @@
         <v>44306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>13</v>
@@ -1873,13 +1872,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>30</v>
@@ -1888,7 +1887,7 @@
         <v>44306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>13</v>
@@ -1899,13 +1898,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>31</v>
@@ -1914,7 +1913,7 @@
         <v>44306</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>13</v>
@@ -1925,7 +1924,7 @@
     </row>
     <row r="22" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>15</v>
@@ -1940,7 +1939,7 @@
         <v>44306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>13</v>
@@ -1951,7 +1950,7 @@
     </row>
     <row r="23" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>15</v>
@@ -1966,7 +1965,7 @@
         <v>44306</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>13</v>
@@ -1977,7 +1976,7 @@
     </row>
     <row r="24" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>15</v>
@@ -1992,7 +1991,7 @@
         <v>44306</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>13</v>
@@ -2003,7 +2002,7 @@
     </row>
     <row r="25" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>15</v>
@@ -2018,7 +2017,7 @@
         <v>44306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>13</v>
@@ -2029,7 +2028,7 @@
     </row>
     <row r="26" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>15</v>
@@ -2044,7 +2043,7 @@
         <v>44306</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>13</v>
@@ -2055,7 +2054,7 @@
     </row>
     <row r="27" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>15</v>
@@ -2070,7 +2069,7 @@
         <v>44306</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>13</v>
@@ -2081,7 +2080,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>63</v>
@@ -2096,7 +2095,7 @@
         <v>44306</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>13</v>
@@ -2107,7 +2106,7 @@
     </row>
     <row r="29" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>64</v>
@@ -2122,7 +2121,7 @@
         <v>44306</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>13</v>
@@ -2133,7 +2132,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>64</v>
@@ -2148,7 +2147,7 @@
         <v>44306</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>13</v>
@@ -2159,7 +2158,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>68</v>
@@ -2174,7 +2173,7 @@
         <v>44306</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>13</v>
@@ -2185,22 +2184,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E32" s="6">
         <v>44306</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>13</v>
@@ -2211,7 +2210,7 @@
     </row>
     <row r="33" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>19</v>
@@ -2226,7 +2225,7 @@
         <v>44306</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>13</v>
@@ -2237,7 +2236,7 @@
     </row>
     <row r="34" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>19</v>
@@ -2252,7 +2251,7 @@
         <v>44306</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>13</v>
@@ -2263,7 +2262,7 @@
     </row>
     <row r="35" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>19</v>
@@ -2278,7 +2277,7 @@
         <v>44306</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>13</v>
@@ -2289,7 +2288,7 @@
     </row>
     <row r="36" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>19</v>
@@ -2304,7 +2303,7 @@
         <v>44306</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>13</v>
@@ -2315,7 +2314,7 @@
     </row>
     <row r="37" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>19</v>
@@ -2330,7 +2329,7 @@
         <v>44306</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>13</v>
@@ -2341,7 +2340,7 @@
     </row>
     <row r="38" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>19</v>
@@ -2350,13 +2349,13 @@
         <v>86</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E38" s="6">
         <v>44306</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>13</v>
@@ -2365,9 +2364,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>19</v>
@@ -2376,13 +2375,13 @@
         <v>84</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="E39" s="6">
         <v>44306</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>13</v>
@@ -2393,22 +2392,22 @@
     </row>
     <row r="40" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E40" s="6">
         <v>44306</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>13</v>
@@ -2419,13 +2418,13 @@
     </row>
     <row r="41" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>21</v>
@@ -2434,7 +2433,7 @@
         <v>44306</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>13</v>
@@ -2445,13 +2444,13 @@
     </row>
     <row r="42" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>23</v>
@@ -2460,7 +2459,7 @@
         <v>44306</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>13</v>
@@ -2471,13 +2470,13 @@
     </row>
     <row r="43" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>24</v>
@@ -2486,7 +2485,7 @@
         <v>44306</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>13</v>
@@ -2497,13 +2496,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>22</v>
@@ -2512,7 +2511,7 @@
         <v>44306</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>13</v>
@@ -2523,13 +2522,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>25</v>
@@ -2538,7 +2537,7 @@
         <v>44306</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
@@ -2549,22 +2548,22 @@
     </row>
     <row r="46" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>121</v>
-      </c>
       <c r="E46" s="6">
         <v>44306</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>13</v>
@@ -2575,22 +2574,22 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E47" s="6">
         <v>44306</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -2601,13 +2600,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>32</v>
@@ -2616,7 +2615,7 @@
         <v>44306</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>13</v>
@@ -2627,13 +2626,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>33</v>
@@ -2642,7 +2641,7 @@
         <v>44306</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -2653,22 +2652,22 @@
     </row>
     <row r="50" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E50" s="6">
         <v>44306</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>13</v>
@@ -2679,13 +2678,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>34</v>
@@ -2694,7 +2693,7 @@
         <v>44306</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -2705,22 +2704,22 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52" s="6">
         <v>44306</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>13</v>
@@ -2731,22 +2730,22 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E53" s="6">
         <v>44306</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>13</v>
@@ -2757,22 +2756,22 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E54" s="6">
         <v>44306</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>13</v>
@@ -2783,22 +2782,22 @@
     </row>
     <row r="55" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C55" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E55" s="6">
         <v>44306</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>13</v>
@@ -2809,22 +2808,22 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E56" s="6">
         <v>44306</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>13</v>
@@ -2835,22 +2834,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E57" s="6">
         <v>44306</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>13</v>
@@ -2861,22 +2860,22 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E58" s="6">
         <v>44306</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>13</v>
@@ -2887,22 +2886,22 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E59" s="6">
         <v>44306</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>13</v>
@@ -2913,22 +2912,22 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E60" s="6">
         <v>44306</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>13</v>
@@ -2939,22 +2938,22 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E61" s="6">
         <v>44306</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>13</v>
@@ -2965,22 +2964,22 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E62" s="6">
         <v>44306</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>13</v>
@@ -2991,22 +2990,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E63" s="6">
         <v>44306</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>13</v>
@@ -3017,22 +3016,22 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="8" t="s">
+      <c r="D64" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E64" s="6">
         <v>44306</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>13</v>
@@ -3043,22 +3042,22 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E65" s="6">
         <v>44306</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>13</v>
@@ -3069,22 +3068,22 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E66" s="6">
         <v>44306</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>13</v>

--- a/React_FTP_요구사항_명세서.xlsx
+++ b/React_FTP_요구사항_명세서.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\김보경\교육5. React FTP 탐색기 개발\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yskim\Documents\ReactFTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A581F5D-3CF4-42EA-BB59-C54BADB49501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14412" windowHeight="7104"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="211">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -887,11 +888,35 @@
     <t>김보경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>새로 발급된 임시 비밀번호는 alert으로 사용자에게 알린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0025-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0026-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회한 아이디는 alert으로 사용자에게 알린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1348,27 +1373,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="8" customWidth="1"/>
     <col min="3" max="3" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.09765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.19921875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="80.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="13" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.19921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" style="8"/>
-    <col min="9" max="16384" width="8.796875" style="10"/>
+    <col min="7" max="7" width="8.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="8"/>
+    <col min="9" max="16384" width="8.75" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1421,7 +1446,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1448,7 +1473,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>127</v>
       </c>
@@ -1475,7 +1500,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>128</v>
       </c>
@@ -1502,7 +1527,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="109.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>129</v>
       </c>
@@ -1529,7 +1554,7 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>130</v>
       </c>
@@ -1556,7 +1581,7 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>131</v>
       </c>
@@ -1583,7 +1608,7 @@
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>132</v>
       </c>
@@ -1610,7 +1635,7 @@
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>133</v>
       </c>
@@ -1637,7 +1662,7 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>134</v>
       </c>
@@ -1663,7 +1688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>183</v>
       </c>
@@ -1689,7 +1714,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>135</v>
       </c>
@@ -1706,7 +1731,7 @@
         <v>44306</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
@@ -1715,7 +1740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>184</v>
       </c>
@@ -1732,7 +1757,7 @@
         <v>44306</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>13</v>
@@ -1741,7 +1766,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>136</v>
       </c>
@@ -1758,7 +1783,7 @@
         <v>44306</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>13</v>
@@ -1767,7 +1792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>137</v>
       </c>
@@ -1784,7 +1809,7 @@
         <v>44306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>13</v>
@@ -1793,7 +1818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>138</v>
       </c>
@@ -1819,7 +1844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>139</v>
       </c>
@@ -1845,7 +1870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>140</v>
       </c>
@@ -1871,7 +1896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>141</v>
       </c>
@@ -1897,7 +1922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>142</v>
       </c>
@@ -1923,7 +1948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>143</v>
       </c>
@@ -1949,7 +1974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>144</v>
       </c>
@@ -1975,7 +2000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>145</v>
       </c>
@@ -2001,7 +2026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>146</v>
       </c>
@@ -2027,7 +2052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>147</v>
       </c>
@@ -2053,7 +2078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>148</v>
       </c>
@@ -2079,7 +2104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>149</v>
       </c>
@@ -2105,21 +2130,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="E29" s="6">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>203</v>
@@ -2128,21 +2153,21 @@
         <v>13</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>18</v>
+        <v>64</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="E30" s="6">
         <v>44306</v>
@@ -2157,21 +2182,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="E31" s="6">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>203</v>
@@ -2180,21 +2205,21 @@
         <v>13</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>103</v>
+        <v>64</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="E32" s="6">
         <v>44306</v>
@@ -2205,74 +2230,74 @@
       <c r="G32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
+    <row r="35" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="A35" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>72</v>
+      <c r="C35" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E35" s="6">
         <v>44306</v>
@@ -2287,18 +2312,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E36" s="6">
         <v>44306</v>
@@ -2313,18 +2338,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E37" s="6">
         <v>44306</v>
@@ -2339,18 +2364,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>86</v>
+      <c r="C38" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E38" s="6">
         <v>44306</v>
@@ -2362,21 +2387,21 @@
         <v>13</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>84</v>
+      <c r="C39" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E39" s="6">
         <v>44306</v>
@@ -2391,18 +2416,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E40" s="6">
         <v>44306</v>
@@ -2414,21 +2439,21 @@
         <v>13</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>89</v>
+      <c r="C41" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="E41" s="6">
         <v>44306</v>
@@ -2443,18 +2468,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>113</v>
+      <c r="C42" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E42" s="6">
         <v>44306</v>
@@ -2469,18 +2494,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E43" s="6">
         <v>44306</v>
@@ -2495,18 +2520,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>118</v>
+      <c r="C44" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E44" s="6">
         <v>44306</v>
@@ -2521,18 +2546,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>119</v>
+      <c r="C45" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" s="6">
         <v>44306</v>
@@ -2544,21 +2569,21 @@
         <v>13</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>121</v>
+      <c r="C46" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E46" s="6">
         <v>44306</v>
@@ -2573,18 +2598,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>122</v>
+      <c r="C47" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E47" s="6">
         <v>44306</v>
@@ -2596,21 +2621,21 @@
         <v>13</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>32</v>
+        <v>120</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E48" s="6">
         <v>44306</v>
@@ -2625,18 +2650,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="E49" s="6">
         <v>44306</v>
@@ -2651,18 +2676,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>192</v>
+        <v>123</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="E50" s="6">
         <v>44306</v>
@@ -2674,21 +2699,21 @@
         <v>13</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>34</v>
+      <c r="C51" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="E51" s="6">
         <v>44306</v>
@@ -2703,70 +2728,70 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E52" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E54" s="6">
         <v>44306</v>
@@ -2781,18 +2806,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>107</v>
+        <v>92</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E55" s="6">
         <v>44306</v>
@@ -2807,18 +2832,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E56" s="6">
         <v>44306</v>
@@ -2833,18 +2858,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>27</v>
+      <c r="C57" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E57" s="6">
         <v>44306</v>
@@ -2859,18 +2884,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="E58" s="6">
         <v>44306</v>
@@ -2885,9 +2910,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>95</v>
@@ -2896,7 +2921,7 @@
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E59" s="6">
         <v>44306</v>
@@ -2908,21 +2933,21 @@
         <v>13</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E60" s="6">
         <v>44306</v>
@@ -2937,18 +2962,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="E61" s="6">
         <v>44306</v>
@@ -2963,9 +2988,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>95</v>
@@ -2974,7 +2999,7 @@
         <v>96</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="E62" s="6">
         <v>44306</v>
@@ -2989,9 +3014,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>95</v>
@@ -3000,7 +3025,7 @@
         <v>96</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="E63" s="6">
         <v>44306</v>
@@ -3012,21 +3037,21 @@
         <v>13</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="E64" s="6">
         <v>44306</v>
@@ -3038,21 +3063,21 @@
         <v>13</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>112</v>
+        <v>95</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="E65" s="6">
         <v>44306</v>
@@ -3067,18 +3092,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="E66" s="6">
         <v>44306</v>
@@ -3090,47 +3115,80 @@
         <v>13</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A67" s="5"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A68" s="5"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="6"/>
@@ -3138,68 +3196,70 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E75" s="6"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E76" s="6"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A86" s="5"/>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A87" s="5"/>
-      <c r="C87" s="12"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -3208,55 +3268,72 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
+      <c r="C89" s="12"/>
       <c r="E89" s="6"/>
       <c r="F89" s="7"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E90" s="6"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E91" s="6"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="5"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="5"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
     </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/React_FTP_요구사항_명세서.xlsx
+++ b/React_FTP_요구사항_명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yskim\Documents\ReactFTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E19614-3EE2-436C-8F7D-E9D33D4690F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F53903-EC31-4D9B-8CDE-5DB5F55C0FE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="225">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -911,6 +911,58 @@
     <t>좌측의 폴더 탐색기에서 선택한 폴더 하위의 컨텐츠들이 우측 레이아웃에
 표시되어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단의 내 정보관리를 선택 시, 회원가입 시 입력한 정보를 확인할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 확인 페이지에서 수정하기를 누르면 이용자의 비밀번호를 재확인 후 수정 페이지를 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정입력사항 중 다음 항목은 변경시 중복 확인을 해야 한다.
+    - 이메일, 연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정입력사항 중 다음 항목은 재입력을 통한 확인해야 한다.
+    - 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정입력사항 중 다음 항목은 입력 포맷을 확인해야 한다.
+    - 이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정입력사항 입력사항 중 &lt;주소&gt; 항목은 다음과 같이 세분화하여 관리해야 한다.
+    - 기본주소, 상세주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.2</t>
+  </si>
+  <si>
+    <t>v0.1</t>
+  </si>
+  <si>
+    <t>RQ-0061</t>
+  </si>
+  <si>
+    <t>RQ-0062</t>
+  </si>
+  <si>
+    <t>RQ-0063</t>
+  </si>
+  <si>
+    <t>RQ-0064</t>
+  </si>
+  <si>
+    <t>RQ-0065</t>
+  </si>
+  <si>
+    <t>RQ-0066</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3161,7 +3213,7 @@
         <v>44306</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>13</v>
@@ -3171,43 +3223,164 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
+      <c r="A69" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69" s="6">
+        <v>44307</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
+      <c r="A70" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70" s="6">
+        <v>44308</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E74" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="6"/>
@@ -3216,12 +3389,23 @@
       <c r="H76" s="5"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C79" s="10"/>
@@ -3260,21 +3444,12 @@
       <c r="D87" s="10"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="C89" s="12"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
@@ -3287,8 +3462,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
+      <c r="C91" s="12"/>
       <c r="E91" s="6"/>
       <c r="F91" s="7"/>
       <c r="G91" s="5"/>
@@ -3298,17 +3472,27 @@
       <c r="A92" s="5"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="5"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="5"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
     </row>
@@ -3331,6 +3515,14 @@
     <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/React_FTP_요구사항_명세서.xlsx
+++ b/React_FTP_요구사항_명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yskim\Documents\ReactFTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F53903-EC31-4D9B-8CDE-5DB5F55C0FE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39A932B-7A18-4018-82AC-A437BA1024EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6690" yWindow="1545" windowWidth="13830" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="231">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -646,12 +646,6 @@
     <t>RQ-0011</t>
   </si>
   <si>
-    <t>RQ-0012</t>
-  </si>
-  <si>
-    <t>RQ-0013</t>
-  </si>
-  <si>
     <t>RQ-0014</t>
   </si>
   <si>
@@ -691,16 +685,7 @@
     <t>RQ-0026</t>
   </si>
   <si>
-    <t>RQ-0027</t>
-  </si>
-  <si>
-    <t>RQ-0028</t>
-  </si>
-  <si>
     <t>RQ-0030</t>
-  </si>
-  <si>
-    <t>RQ-0031</t>
   </si>
   <si>
     <t>RQ-0032</t>
@@ -793,10 +778,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RQ-0010-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-0011-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -811,22 +792,6 @@
   <si>
     <t>Manager 은 관리자 계정으로 회원가입 해야한다.
 회원가입 완료 후 Administrator 의 승인이 필요하다. 승인 전까지는 계정 사용이 불가능.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0029-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0035-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0042-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0046-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -836,22 +801,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RQ-0047</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0054-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자 정보는 아이디로 검색할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RQ-0055-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화면 검색 창을 통해 사용자의 이름 또는 아이디를 조회하여 접근 권한 레벨을 수정할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -860,10 +813,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RQ-0058-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최초 검색된 데이터 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -889,10 +838,6 @@
   </si>
   <si>
     <t>v2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0025-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -963,6 +908,85 @@
   </si>
   <si>
     <t>RQ-0066</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에는 두가지 방법이있다. 
+- 로그인창에서 일반 회원가입 
+- Admin 또는 Manager의 사용관리창에서 승인없이 바로 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0012-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0027-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0029</t>
+  </si>
+  <si>
+    <t>RQ-0031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0035</t>
+  </si>
+  <si>
+    <t>RQ-0042</t>
+  </si>
+  <si>
+    <t>RQ-0047</t>
+  </si>
+  <si>
+    <t>RQ-0058</t>
+  </si>
+  <si>
+    <t>RQ-0067</t>
+  </si>
+  <si>
+    <t>RQ-0068</t>
+  </si>
+  <si>
+    <t>RQ-0069</t>
+  </si>
+  <si>
+    <t>RQ-0070</t>
+  </si>
+  <si>
+    <t>회사 내 사용자를 추가 시 회원가입 폼을 동일하게 작성한다
+-Manager로 로그인 후 사용자 추가시 매니저의 회사로 승인 없이 사용자가 추가된다.
+-Manager로 로그인 후 사용자 추가시 매니저 추가의 경우 Administrator 의 승인이 필요하다.
+-Administrator로 로그인 후 사용자 추가시 승인 없이 사용자가 추가된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0071</t>
+  </si>
+  <si>
+    <t>반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1426,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1488,7 +1512,7 @@
         <v>44306</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>13</v>
@@ -1515,7 +1539,7 @@
         <v>44306</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>13</v>
@@ -1542,7 +1566,7 @@
         <v>44306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>13</v>
@@ -1569,7 +1593,7 @@
         <v>44306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>13</v>
@@ -1596,7 +1620,7 @@
         <v>44306</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>13</v>
@@ -1623,7 +1647,7 @@
         <v>44306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>13</v>
@@ -1650,7 +1674,7 @@
         <v>44306</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>13</v>
@@ -1677,7 +1701,7 @@
         <v>44306</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>13</v>
@@ -1704,7 +1728,7 @@
         <v>44306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>13</v>
@@ -1714,183 +1738,181 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="C11" s="12" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="E11" s="6">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E12" s="6">
         <v>44306</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E13" s="6">
         <v>44306</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E14" s="6">
         <v>44306</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="E15" s="6">
         <v>44306</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E16" s="6">
         <v>44306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>116</v>
+      <c r="C17" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E17" s="6">
         <v>44306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>9</v>
@@ -1898,7 +1920,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>12</v>
@@ -1907,13 +1929,13 @@
         <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="E18" s="6">
         <v>44306</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>13</v>
@@ -1924,7 +1946,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>12</v>
@@ -1933,13 +1955,13 @@
         <v>116</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="E19" s="6">
         <v>44306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>13</v>
@@ -1950,7 +1972,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>12</v>
@@ -1958,14 +1980,14 @@
       <c r="C20" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>30</v>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E20" s="6">
         <v>44306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>13</v>
@@ -1976,7 +1998,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>12</v>
@@ -1985,13 +2007,13 @@
         <v>116</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="6">
         <v>44306</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>13</v>
@@ -2000,24 +2022,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="E22" s="6">
         <v>44306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>13</v>
@@ -2026,27 +2048,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E23" s="6">
         <v>44306</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>9</v>
@@ -2054,25 +2076,25 @@
     </row>
     <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="6">
         <v>44306</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>9</v>
@@ -2080,25 +2102,25 @@
     </row>
     <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="6">
         <v>44306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
@@ -2106,25 +2128,25 @@
     </row>
     <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E26" s="6">
         <v>44306</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>9</v>
@@ -2132,51 +2154,51 @@
     </row>
     <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="E28" s="6">
         <v>44306</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>9</v>
@@ -2184,7 +2206,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>63</v>
@@ -2193,50 +2215,50 @@
         <v>63</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="E29" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" s="6">
         <v>44307</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="6">
-        <v>44306</v>
-      </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>64</v>
@@ -2245,68 +2267,68 @@
         <v>64</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="E31" s="6">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>18</v>
+        <v>64</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="E32" s="6">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="E33" s="6">
         <v>44306</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>9</v>
@@ -2314,74 +2336,74 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="8" t="s">
+      <c r="E35" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>85</v>
+      <c r="C36" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="E36" s="6">
         <v>44306</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>13</v>
@@ -2390,24 +2412,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="E37" s="6">
         <v>44306</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>13</v>
@@ -2418,22 +2440,22 @@
     </row>
     <row r="38" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E38" s="6">
         <v>44306</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>13</v>
@@ -2442,24 +2464,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" s="6">
         <v>44306</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>13</v>
@@ -2470,74 +2492,74 @@
     </row>
     <row r="40" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>86</v>
+      <c r="C40" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E40" s="6">
         <v>44306</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="E41" s="6">
         <v>44306</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="E42" s="6">
         <v>44306</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>13</v>
@@ -2546,24 +2568,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>88</v>
+      <c r="C43" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E43" s="6">
         <v>44306</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>13</v>
@@ -2572,24 +2594,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E44" s="6">
         <v>44306</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>13</v>
@@ -2600,22 +2622,22 @@
     </row>
     <row r="45" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="6">
         <v>44306</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
@@ -2624,24 +2646,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>117</v>
+      <c r="C46" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E46" s="6">
         <v>44306</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>13</v>
@@ -2652,74 +2674,74 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E47" s="6">
         <v>44306</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>120</v>
+      <c r="C48" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E48" s="6">
         <v>44306</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="E49" s="6">
         <v>44306</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -2730,22 +2752,22 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="E50" s="6">
         <v>44306</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>13</v>
@@ -2756,22 +2778,22 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E51" s="6">
         <v>44306</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -2780,9 +2802,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>19</v>
@@ -2790,66 +2812,66 @@
       <c r="C52" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>191</v>
+      <c r="D52" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="E52" s="6">
         <v>44306</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>34</v>
+      <c r="C53" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="E53" s="6">
         <v>44306</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>19</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="E54" s="6">
         <v>44306</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>13</v>
@@ -2860,25 +2882,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>92</v>
+      <c r="C55" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E55" s="6">
         <v>44306</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>9</v>
@@ -2886,77 +2908,77 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E57" s="6">
         <v>44306</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E58" s="6">
         <v>44306</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>9</v>
@@ -2964,25 +2986,25 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E59" s="6">
         <v>44306</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>9</v>
@@ -2990,7 +3012,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>94</v>
@@ -2999,16 +3021,16 @@
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="E60" s="6">
         <v>44306</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>9</v>
@@ -3016,7 +3038,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>94</v>
@@ -3025,50 +3047,50 @@
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="E61" s="6">
         <v>44306</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="E62" s="6">
         <v>44306</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>94</v>
@@ -3077,24 +3099,24 @@
         <v>95</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E63" s="6">
         <v>44306</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>94</v>
@@ -3103,24 +3125,24 @@
         <v>95</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="E64" s="6">
         <v>44306</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>94</v>
@@ -3129,16 +3151,16 @@
         <v>95</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E65" s="6">
         <v>44306</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>9</v>
@@ -3146,111 +3168,111 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="E66" s="6">
         <v>44306</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>111</v>
+        <v>94</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="E67" s="6">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>110</v>
+        <v>94</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="E68" s="6">
         <v>44306</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="E69" s="6">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>217</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>104</v>
@@ -3259,24 +3281,24 @@
         <v>104</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="E70" s="6">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>104</v>
@@ -3284,25 +3306,25 @@
       <c r="C71" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>213</v>
+      <c r="D71" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="E71" s="6">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="F71" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>104</v>
@@ -3310,25 +3332,25 @@
       <c r="C72" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>214</v>
+      <c r="D72" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="E72" s="6">
-        <v>44306</v>
+        <v>44308</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>104</v>
@@ -3337,16 +3359,16 @@
         <v>104</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E73" s="6">
         <v>44306</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>9</v>
@@ -3354,7 +3376,7 @@
     </row>
     <row r="74" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>104</v>
@@ -3363,43 +3385,76 @@
         <v>104</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="E74" s="6">
         <v>44306</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
+    <row r="75" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E75" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E76" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="6"/>
@@ -3408,12 +3463,23 @@
       <c r="H78" s="5"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C81" s="10"/>
@@ -3452,21 +3518,12 @@
       <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
-      <c r="C91" s="12"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
@@ -3479,8 +3536,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
+      <c r="C93" s="12"/>
       <c r="E93" s="6"/>
       <c r="F93" s="7"/>
       <c r="G93" s="5"/>
@@ -3490,39 +3546,57 @@
       <c r="A94" s="5"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="5"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="5"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/React_FTP_요구사항_명세서.xlsx
+++ b/React_FTP_요구사항_명세서.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yskim\Documents\ReactFTP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\workspace-spring-tool-suite-4-4.10.0.RELEASE\ReactFTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F53903-EC31-4D9B-8CDE-5DB5F55C0FE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="236">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -145,13 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우측 레이아웃에서 폴더를 우클릭 시 아래의 메뉴를 선택할 수 있다.
- - 폴더 수정 (이름, 권한)
- - 폴더 삭제
- - 폴더 압축하여 다운로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우측 레이아웃에서 파일을 우클릭 시 아래의 메뉴를 선택할 수 있다.
  - 파일 수정 (이름, 권한)
  - 파일 삭제
@@ -215,10 +207,6 @@
   </si>
   <si>
     <t>FTP 최상위 디렉토리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최상위 디렉토리의 경로는 NAS 서버의 &lt; ftp/REACT FTP &gt; 로 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -493,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전체 사용자 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>팝업 화면을 통해 삭제할 회사를 검색 및 선택 후 삭제한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -620,9 +604,6 @@
   </si>
   <si>
     <t>RQ-0003</t>
-  </si>
-  <si>
-    <t>RQ-0004</t>
   </si>
   <si>
     <t>RQ-0005</t>
@@ -809,11 +790,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Manager 은 관리자 계정으로 회원가입 해야한다.
-회원가입 완료 후 Administrator 의 승인이 필요하다. 승인 전까지는 계정 사용이 불가능.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-0029-0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -864,10 +840,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최초 검색된 데이터 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>페이지로 첫 이동 시, 접근 가능한 전체 데이터를 보여준 후 조건 검색을 통해 데이터를 필터링한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -963,12 +935,86 @@
   </si>
   <si>
     <t>RQ-0066</t>
+  </si>
+  <si>
+    <t>최상위 디렉토리의 경로는 NAS 서버의 &lt; ftp/2021년 상반기 신입사원 교육/REACT FTP &gt; 로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0003-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상위 디렉토리의 경로는 NAS 서버의 &lt; ftp/REACT FTP &gt; 로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager 은 관리자 계정으로 회원가입 해야한다.
+회원가입 완료 후 Administrator 의 승인이 필요하다. 승인 전까지는 계정 사용이 불가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김보경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0038-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 레이아웃에서 선택한 항목 없이 빈 공간을 우클릭하는 기능을 제거하고, 
+파일 업로드 버튼을 우측 레이아웃 우상단에 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 레이아웃에서 폴더를 우클릭 시 아래의 메뉴를 선택할 수 있다.
+ - 폴더 수정 (이름, 권한)
+ - 폴더 삭제
+ - 압축 다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김윤수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 사용자 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 검색 / 사용자 검색 시
+최초 검색된 데이터 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 접근 권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1425,27 +1471,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="8" customWidth="1"/>
     <col min="3" max="3" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="13" customWidth="1"/>
+    <col min="4" max="4" width="80.09765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" style="13" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="8"/>
-    <col min="9" max="16384" width="8.75" style="10"/>
+    <col min="7" max="7" width="8.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" style="8"/>
+    <col min="9" max="16384" width="8.69921875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1471,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1479,26 +1525,26 @@
         <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="6">
         <v>44306</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1506,7 +1552,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>14</v>
@@ -1515,160 +1561,160 @@
         <v>44306</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="E4" s="6">
         <v>44306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="6">
+        <v>44315</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E6" s="6">
         <v>44306</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="109.2" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7" s="6">
         <v>44306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>43</v>
+      <c r="C8" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E8" s="6">
         <v>44306</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>77</v>
@@ -1677,384 +1723,385 @@
         <v>44306</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="6">
         <v>44306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="E11" s="6">
         <v>44306</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E12" s="6">
         <v>44306</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E13" s="6">
         <v>44306</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="E14" s="6">
         <v>44306</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="E15" s="6">
         <v>44306</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E16" s="6">
         <v>44306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>116</v>
+      <c r="C17" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E17" s="6">
         <v>44306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="E18" s="6">
         <v>44306</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="E19" s="6">
         <v>44306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>30</v>
+        <v>113</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E20" s="6">
         <v>44306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="6">
         <v>44306</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="E22" s="6">
         <v>44306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E23" s="6">
         <v>44306</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>15</v>
@@ -2063,440 +2110,440 @@
         <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E24" s="6">
         <v>44306</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E25" s="6">
         <v>44306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E26" s="6">
         <v>44306</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E27" s="6">
         <v>44306</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="E30" s="6">
+        <v>44307</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="6">
+        <v>44307</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29" s="6">
-        <v>44307</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E31" s="6">
-        <v>44307</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E36" s="6">
         <v>44306</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E37" s="6">
         <v>44306</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E38" s="6">
         <v>44306</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E39" s="6">
         <v>44306</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>86</v>
+      <c r="C40" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="E40" s="6">
         <v>44306</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>19</v>
@@ -2505,91 +2552,91 @@
         <v>84</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="E41" s="6">
         <v>44306</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="E42" s="6">
         <v>44306</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="E43" s="6">
         <v>44306</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E44" s="6">
         <v>44306</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>13</v>
@@ -2598,284 +2645,284 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="E45" s="6">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>117</v>
+      <c r="C46" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="E46" s="6">
         <v>44306</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>118</v>
+      <c r="C47" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E47" s="6">
         <v>44306</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>120</v>
+      <c r="C48" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E48" s="6">
         <v>44306</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>121</v>
+      <c r="C49" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E49" s="6">
         <v>44306</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>32</v>
+        <v>116</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="E50" s="6">
         <v>44306</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="E51" s="6">
         <v>44306</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>191</v>
+        <v>119</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="E52" s="6">
         <v>44306</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>34</v>
+      <c r="C53" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="E53" s="6">
         <v>44306</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>19</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="E54" s="6">
         <v>44306</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>19</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="E55" s="6">
         <v>44306</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>13</v>
@@ -2884,522 +2931,555 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A59" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="B62" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="12" t="s">
+      <c r="D64" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E67" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A68" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E69" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E57" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E58" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E60" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="E70" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E62" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="C71" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E71" s="6">
+        <v>44307</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E63" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E66" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E68" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D69" s="11" t="s">
+      <c r="G71" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E69" s="6">
-        <v>44307</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="5" t="s">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E72" s="6">
+        <v>44308</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A73" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E73" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A74" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E74" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A75" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E70" s="6">
-        <v>44308</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="5" t="s">
+      <c r="B75" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E75" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A76" s="5" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E71" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E72" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E73" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E74" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E76" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="6"/>
@@ -3407,68 +3487,70 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E79" s="6"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" s="5"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E80" s="6"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
-      <c r="C91" s="12"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="5"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
@@ -3477,55 +3559,72 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="5"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
+      <c r="C93" s="12"/>
       <c r="E93" s="6"/>
       <c r="F93" s="7"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E94" s="6"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="5"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E95" s="6"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A96" s="5"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="5"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
     </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
